--- a/Documenten/Onderzoek/UartVSI2CVSSPI.xlsx
+++ b/Documenten/Onderzoek/UartVSI2CVSSPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jia-j\Project-5-6\Documenten\Onderzoek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777FB65D-2D06-4FF9-9F84-4DC1184643AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CE9B7-9824-43BD-9456-F3654EA5470F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A0FD9FC-B13D-4C73-99DE-FBC54A0C4EF6}"/>
+    <workbookView xWindow="2235" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{5A0FD9FC-B13D-4C73-99DE-FBC54A0C4EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,19 +121,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FF149E91"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor rgb="FF63E9CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFAAF4ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22EAE5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -158,6 +164,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -166,6 +176,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF22EAE5"/>
+      <color rgb="FFAAF4ED"/>
+      <color rgb="FF63E9CF"/>
+      <color rgb="FF149E91"/>
       <color rgb="FF666699"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFF99CC"/>
@@ -483,39 +497,39 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" activeCellId="1" sqref="N2 F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
@@ -531,31 +545,31 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="4">
         <v>1</v>
       </c>
@@ -571,31 +585,31 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
@@ -611,18 +625,18 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
